--- a/data/stat probs/ochai agbaji stat probs - condition.xlsx
+++ b/data/stat probs/ochai agbaji stat probs - condition.xlsx
@@ -19,18 +19,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 full" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
@@ -593,28 +593,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -1587,22 +1587,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2045,10 +2045,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2363,16 +2363,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2749,16 +2749,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -3331,28 +3331,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -4069,28 +4069,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -4744,7 +4744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4807,28 +4807,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -4845,16 +4845,16 @@
         <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3" t="n">
         <v>75</v>
-      </c>
-      <c r="H3" t="n">
-        <v>25</v>
       </c>
       <c r="I3" t="n">
         <v>50</v>
@@ -4883,16 +4883,16 @@
         <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -4921,10 +4921,10 @@
         <v>75</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -4947,10 +4947,10 @@
         <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -4979,10 +4979,10 @@
         <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -5011,10 +5011,10 @@
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -5043,10 +5043,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -5063,10 +5063,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -5075,10 +5075,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -5127,10 +5127,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -5159,10 +5159,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -5191,10 +5191,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -5223,10 +5223,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -5255,10 +5255,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -5436,6 +5436,294 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>25</v>
+      </c>
+      <c r="D22" t="n">
+        <v>75</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>75</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>25</v>
+      </c>
+      <c r="D24" t="n">
+        <v>75</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>25</v>
+      </c>
+      <c r="D25" t="n">
+        <v>75</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>75</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>75</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" t="n">
+        <v>75</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>100</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>25</v>
+      </c>
+      <c r="D29" t="n">
+        <v>75</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>100</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>25</v>
+      </c>
+      <c r="D30" t="n">
+        <v>75</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>100</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>100</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5450,7 +5738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5513,28 +5801,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -5551,16 +5839,16 @@
         <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3" t="n">
         <v>75</v>
-      </c>
-      <c r="H3" t="n">
-        <v>25</v>
       </c>
       <c r="I3" t="n">
         <v>50</v>
@@ -5589,16 +5877,16 @@
         <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -5627,10 +5915,10 @@
         <v>75</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -5653,10 +5941,10 @@
         <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -5685,10 +5973,10 @@
         <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -5717,10 +6005,10 @@
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5737,10 +6025,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -5749,10 +6037,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -5769,10 +6057,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -5781,10 +6069,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -5833,10 +6121,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -5865,10 +6153,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -5897,10 +6185,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -5929,10 +6217,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -5961,10 +6249,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -6142,6 +6430,294 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>25</v>
+      </c>
+      <c r="D22" t="n">
+        <v>75</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>75</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>25</v>
+      </c>
+      <c r="D24" t="n">
+        <v>75</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>25</v>
+      </c>
+      <c r="D25" t="n">
+        <v>75</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>75</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>75</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" t="n">
+        <v>75</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>100</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>25</v>
+      </c>
+      <c r="D29" t="n">
+        <v>75</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>100</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>25</v>
+      </c>
+      <c r="D30" t="n">
+        <v>75</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>100</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>100</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>100</v>
       </c>
     </row>
@@ -6219,28 +6795,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -6251,28 +6827,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H3" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -6283,28 +6859,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
+        <v>88</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>38</v>
+      </c>
+      <c r="H4" t="n">
+        <v>62</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="n">
         <v>75</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F4" t="n">
-        <v>50</v>
-      </c>
-      <c r="G4" t="n">
-        <v>25</v>
-      </c>
-      <c r="H4" t="n">
-        <v>75</v>
-      </c>
-      <c r="I4" t="n">
-        <v>50</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -6315,22 +6891,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F5" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G5" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I5" t="n">
         <v>25</v>
@@ -6353,10 +6929,10 @@
         <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6365,10 +6941,10 @@
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -6385,10 +6961,10 @@
         <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -6411,10 +6987,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -6443,10 +7019,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -6475,10 +7051,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -6507,10 +7083,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -6859,10 +7435,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -6891,10 +7467,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -6923,10 +7499,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D24" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -6955,10 +7531,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -6987,10 +7563,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -7019,10 +7595,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D27" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -7051,10 +7627,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -7083,10 +7659,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D29" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -7115,10 +7691,10 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D30" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -7213,28 +7789,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -7245,28 +7821,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H3" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -7277,28 +7853,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
+        <v>88</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>38</v>
+      </c>
+      <c r="H4" t="n">
+        <v>62</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="n">
         <v>75</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F4" t="n">
-        <v>50</v>
-      </c>
-      <c r="G4" t="n">
-        <v>25</v>
-      </c>
-      <c r="H4" t="n">
-        <v>75</v>
-      </c>
-      <c r="I4" t="n">
-        <v>50</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -7309,22 +7885,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F5" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G5" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I5" t="n">
         <v>25</v>
@@ -7347,10 +7923,10 @@
         <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -7359,10 +7935,10 @@
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -7379,10 +7955,10 @@
         <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -7405,10 +7981,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -7437,10 +8013,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -7469,10 +8045,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -7501,10 +8077,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -7853,10 +8429,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -7885,10 +8461,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -7917,10 +8493,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D24" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -7949,10 +8525,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -7981,10 +8557,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -8013,10 +8589,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D27" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -8045,10 +8621,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -8077,10 +8653,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D29" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -8109,10 +8685,10 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D30" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -8207,28 +8783,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -8239,28 +8815,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I3" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J3" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -8271,28 +8847,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G4" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -8303,28 +8879,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F5" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H5" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J5" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -8335,16 +8911,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
+        <v>81</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25</v>
+      </c>
+      <c r="F6" t="n">
         <v>75</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25</v>
-      </c>
-      <c r="E6" t="n">
-        <v>12</v>
-      </c>
-      <c r="F6" t="n">
-        <v>88</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -8373,10 +8949,10 @@
         <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -8385,10 +8961,10 @@
         <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -8399,16 +8975,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -8417,10 +8993,10 @@
         <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -8431,16 +9007,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
+        <v>62</v>
+      </c>
+      <c r="D9" t="n">
         <v>38</v>
       </c>
-      <c r="D9" t="n">
-        <v>62</v>
-      </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -8463,10 +9039,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D10" t="n">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -8495,10 +9071,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D11" t="n">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -8527,10 +9103,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -8559,10 +9135,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D13" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -8591,10 +9167,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D14" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -8623,10 +9199,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D15" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -8655,10 +9231,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -8687,10 +9263,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -8719,10 +9295,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -8751,10 +9327,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D19" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -8783,10 +9359,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -8815,10 +9391,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D21" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -8847,10 +9423,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -8879,10 +9455,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -8911,10 +9487,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -8943,10 +9519,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -8975,10 +9551,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -9007,10 +9583,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -9039,10 +9615,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -9071,10 +9647,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -9103,10 +9679,10 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -9201,28 +9777,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -9233,28 +9809,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I3" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J3" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -9265,28 +9841,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G4" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -9297,28 +9873,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F5" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H5" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J5" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -9329,16 +9905,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
+        <v>81</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25</v>
+      </c>
+      <c r="F6" t="n">
         <v>75</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25</v>
-      </c>
-      <c r="E6" t="n">
-        <v>12</v>
-      </c>
-      <c r="F6" t="n">
-        <v>88</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -9367,10 +9943,10 @@
         <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -9379,10 +9955,10 @@
         <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -9393,16 +9969,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -9411,10 +9987,10 @@
         <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -9425,16 +10001,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
+        <v>62</v>
+      </c>
+      <c r="D9" t="n">
         <v>38</v>
       </c>
-      <c r="D9" t="n">
-        <v>62</v>
-      </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -9457,10 +10033,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D10" t="n">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -9489,10 +10065,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D11" t="n">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -9521,10 +10097,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -9553,10 +10129,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D13" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -9585,10 +10161,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D14" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -9617,10 +10193,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D15" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -9649,10 +10225,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -9681,10 +10257,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -9713,10 +10289,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -9745,10 +10321,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D19" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -9777,10 +10353,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -9809,10 +10385,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D21" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -9841,10 +10417,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -9873,10 +10449,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -9905,10 +10481,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -9937,10 +10513,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -9969,10 +10545,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -10001,10 +10577,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -10033,10 +10609,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -10065,10 +10641,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -10097,10 +10673,10 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -10132,7 +10708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10195,28 +10771,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -10227,28 +10803,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J3" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -10259,28 +10835,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="H4" t="n">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I4" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J4" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -10291,28 +10867,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I5" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J5" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -10323,10 +10899,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>25</v>
@@ -10341,10 +10917,10 @@
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -10355,16 +10931,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -10373,10 +10949,10 @@
         <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -10387,16 +10963,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -10405,10 +10981,10 @@
         <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -10419,16 +10995,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -10451,10 +11027,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -10483,10 +11059,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D11" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -10515,10 +11091,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D12" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -10547,10 +11123,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D13" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -10579,10 +11155,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D14" t="n">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -10611,10 +11187,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -10643,10 +11219,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -10664,454 +11240,6 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>22</v>
-      </c>
-      <c r="D17" t="n">
-        <v>78</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>22</v>
-      </c>
-      <c r="D18" t="n">
-        <v>78</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>22</v>
-      </c>
-      <c r="D19" t="n">
-        <v>78</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>16</v>
-      </c>
-      <c r="D20" t="n">
-        <v>84</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>16</v>
-      </c>
-      <c r="D21" t="n">
-        <v>84</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>9</v>
-      </c>
-      <c r="D22" t="n">
-        <v>91</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>9</v>
-      </c>
-      <c r="D23" t="n">
-        <v>91</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>9</v>
-      </c>
-      <c r="D24" t="n">
-        <v>91</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>6</v>
-      </c>
-      <c r="D25" t="n">
-        <v>94</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>6</v>
-      </c>
-      <c r="D26" t="n">
-        <v>94</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>6</v>
-      </c>
-      <c r="D27" t="n">
-        <v>94</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C28" t="n">
-        <v>6</v>
-      </c>
-      <c r="D28" t="n">
-        <v>94</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>100</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>100</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>27</v>
-      </c>
-      <c r="C29" t="n">
-        <v>6</v>
-      </c>
-      <c r="D29" t="n">
-        <v>94</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>100</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>100</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>28</v>
-      </c>
-      <c r="C30" t="n">
-        <v>3</v>
-      </c>
-      <c r="D30" t="n">
-        <v>97</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>100</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>100</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
         <v>100</v>
       </c>
     </row>
@@ -11189,28 +11317,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -12115,1000 +12243,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>84</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16</v>
-      </c>
-      <c r="E3" t="n">
-        <v>94</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G3" t="n">
-        <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>31</v>
-      </c>
-      <c r="I3" t="n">
-        <v>69</v>
-      </c>
-      <c r="J3" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>84</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16</v>
-      </c>
-      <c r="E4" t="n">
-        <v>62</v>
-      </c>
-      <c r="F4" t="n">
-        <v>38</v>
-      </c>
-      <c r="G4" t="n">
-        <v>34</v>
-      </c>
-      <c r="H4" t="n">
-        <v>66</v>
-      </c>
-      <c r="I4" t="n">
-        <v>53</v>
-      </c>
-      <c r="J4" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>81</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19</v>
-      </c>
-      <c r="E5" t="n">
-        <v>44</v>
-      </c>
-      <c r="F5" t="n">
-        <v>56</v>
-      </c>
-      <c r="G5" t="n">
-        <v>16</v>
-      </c>
-      <c r="H5" t="n">
-        <v>84</v>
-      </c>
-      <c r="I5" t="n">
-        <v>31</v>
-      </c>
-      <c r="J5" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>81</v>
-      </c>
-      <c r="D6" t="n">
-        <v>19</v>
-      </c>
-      <c r="E6" t="n">
-        <v>25</v>
-      </c>
-      <c r="F6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>75</v>
-      </c>
-      <c r="D7" t="n">
-        <v>25</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6</v>
-      </c>
-      <c r="F7" t="n">
-        <v>94</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>69</v>
-      </c>
-      <c r="D8" t="n">
-        <v>31</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>97</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>62</v>
-      </c>
-      <c r="D9" t="n">
-        <v>38</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>97</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>59</v>
-      </c>
-      <c r="D10" t="n">
-        <v>41</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>56</v>
-      </c>
-      <c r="D11" t="n">
-        <v>44</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>53</v>
-      </c>
-      <c r="D12" t="n">
-        <v>47</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>47</v>
-      </c>
-      <c r="D13" t="n">
-        <v>53</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>41</v>
-      </c>
-      <c r="D14" t="n">
-        <v>59</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>38</v>
-      </c>
-      <c r="D15" t="n">
-        <v>62</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>34</v>
-      </c>
-      <c r="D16" t="n">
-        <v>66</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>22</v>
-      </c>
-      <c r="D17" t="n">
-        <v>78</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>22</v>
-      </c>
-      <c r="D18" t="n">
-        <v>78</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>22</v>
-      </c>
-      <c r="D19" t="n">
-        <v>78</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>16</v>
-      </c>
-      <c r="D20" t="n">
-        <v>84</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>16</v>
-      </c>
-      <c r="D21" t="n">
-        <v>84</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>9</v>
-      </c>
-      <c r="D22" t="n">
-        <v>91</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>9</v>
-      </c>
-      <c r="D23" t="n">
-        <v>91</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>9</v>
-      </c>
-      <c r="D24" t="n">
-        <v>91</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>6</v>
-      </c>
-      <c r="D25" t="n">
-        <v>94</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>6</v>
-      </c>
-      <c r="D26" t="n">
-        <v>94</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>6</v>
-      </c>
-      <c r="D27" t="n">
-        <v>94</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C28" t="n">
-        <v>6</v>
-      </c>
-      <c r="D28" t="n">
-        <v>94</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>100</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>100</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>27</v>
-      </c>
-      <c r="C29" t="n">
-        <v>6</v>
-      </c>
-      <c r="D29" t="n">
-        <v>94</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>100</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>100</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>28</v>
-      </c>
-      <c r="C30" t="n">
-        <v>3</v>
-      </c>
-      <c r="D30" t="n">
-        <v>97</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>100</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>100</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13177,28 +12311,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -13654,553 +12788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>75</v>
-      </c>
-      <c r="H3" t="n">
-        <v>25</v>
-      </c>
-      <c r="I3" t="n">
-        <v>75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F4" t="n">
-        <v>50</v>
-      </c>
-      <c r="G4" t="n">
-        <v>75</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25</v>
-      </c>
-      <c r="I4" t="n">
-        <v>50</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>50</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="n">
-        <v>25</v>
-      </c>
-      <c r="H5" t="n">
-        <v>75</v>
-      </c>
-      <c r="I5" t="n">
-        <v>25</v>
-      </c>
-      <c r="J5" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>25</v>
-      </c>
-      <c r="F6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>75</v>
-      </c>
-      <c r="D11" t="n">
-        <v>25</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>75</v>
-      </c>
-      <c r="D12" t="n">
-        <v>25</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>75</v>
-      </c>
-      <c r="D13" t="n">
-        <v>25</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>75</v>
-      </c>
-      <c r="D14" t="n">
-        <v>25</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>50</v>
-      </c>
-      <c r="D15" t="n">
-        <v>50</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>25</v>
-      </c>
-      <c r="D16" t="n">
-        <v>75</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14269,28 +12857,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
@@ -15162,7 +13750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15231,28 +13819,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
@@ -16116,6 +14704,1610 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>71</v>
+      </c>
+      <c r="E2" t="n">
+        <v>43</v>
+      </c>
+      <c r="F2" t="n">
+        <v>57</v>
+      </c>
+      <c r="G2" t="n">
+        <v>43</v>
+      </c>
+      <c r="H2" t="n">
+        <v>57</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43</v>
+      </c>
+      <c r="J2" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29</v>
+      </c>
+      <c r="E3" t="n">
+        <v>57</v>
+      </c>
+      <c r="F3" t="n">
+        <v>43</v>
+      </c>
+      <c r="G3" t="n">
+        <v>57</v>
+      </c>
+      <c r="H3" t="n">
+        <v>43</v>
+      </c>
+      <c r="I3" t="n">
+        <v>57</v>
+      </c>
+      <c r="J3" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29</v>
+      </c>
+      <c r="F4" t="n">
+        <v>71</v>
+      </c>
+      <c r="G4" t="n">
+        <v>43</v>
+      </c>
+      <c r="H4" t="n">
+        <v>57</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29</v>
+      </c>
+      <c r="J4" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>57</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E5" t="n">
+        <v>29</v>
+      </c>
+      <c r="F5" t="n">
+        <v>71</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14</v>
+      </c>
+      <c r="H5" t="n">
+        <v>86</v>
+      </c>
+      <c r="I5" t="n">
+        <v>29</v>
+      </c>
+      <c r="J5" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>43</v>
+      </c>
+      <c r="D6" t="n">
+        <v>57</v>
+      </c>
+      <c r="E6" t="n">
+        <v>29</v>
+      </c>
+      <c r="F6" t="n">
+        <v>71</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14</v>
+      </c>
+      <c r="J6" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>43</v>
+      </c>
+      <c r="D7" t="n">
+        <v>57</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>43</v>
+      </c>
+      <c r="D8" t="n">
+        <v>57</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>29</v>
+      </c>
+      <c r="D9" t="n">
+        <v>71</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>29</v>
+      </c>
+      <c r="D10" t="n">
+        <v>71</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>29</v>
+      </c>
+      <c r="D11" t="n">
+        <v>71</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14</v>
+      </c>
+      <c r="D12" t="n">
+        <v>86</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>86</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>86</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>86</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>86</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14</v>
+      </c>
+      <c r="D17" t="n">
+        <v>86</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14</v>
+      </c>
+      <c r="D18" t="n">
+        <v>86</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>14</v>
+      </c>
+      <c r="D19" t="n">
+        <v>86</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>14</v>
+      </c>
+      <c r="D20" t="n">
+        <v>86</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>14</v>
+      </c>
+      <c r="D21" t="n">
+        <v>86</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>14</v>
+      </c>
+      <c r="D22" t="n">
+        <v>86</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>14</v>
+      </c>
+      <c r="D23" t="n">
+        <v>86</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>14</v>
+      </c>
+      <c r="D24" t="n">
+        <v>86</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>71</v>
+      </c>
+      <c r="E2" t="n">
+        <v>43</v>
+      </c>
+      <c r="F2" t="n">
+        <v>57</v>
+      </c>
+      <c r="G2" t="n">
+        <v>43</v>
+      </c>
+      <c r="H2" t="n">
+        <v>57</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43</v>
+      </c>
+      <c r="J2" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29</v>
+      </c>
+      <c r="E3" t="n">
+        <v>57</v>
+      </c>
+      <c r="F3" t="n">
+        <v>43</v>
+      </c>
+      <c r="G3" t="n">
+        <v>57</v>
+      </c>
+      <c r="H3" t="n">
+        <v>43</v>
+      </c>
+      <c r="I3" t="n">
+        <v>57</v>
+      </c>
+      <c r="J3" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29</v>
+      </c>
+      <c r="F4" t="n">
+        <v>71</v>
+      </c>
+      <c r="G4" t="n">
+        <v>43</v>
+      </c>
+      <c r="H4" t="n">
+        <v>57</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29</v>
+      </c>
+      <c r="J4" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>57</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43</v>
+      </c>
+      <c r="E5" t="n">
+        <v>29</v>
+      </c>
+      <c r="F5" t="n">
+        <v>71</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14</v>
+      </c>
+      <c r="H5" t="n">
+        <v>86</v>
+      </c>
+      <c r="I5" t="n">
+        <v>29</v>
+      </c>
+      <c r="J5" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>43</v>
+      </c>
+      <c r="D6" t="n">
+        <v>57</v>
+      </c>
+      <c r="E6" t="n">
+        <v>29</v>
+      </c>
+      <c r="F6" t="n">
+        <v>71</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14</v>
+      </c>
+      <c r="J6" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>43</v>
+      </c>
+      <c r="D7" t="n">
+        <v>57</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>43</v>
+      </c>
+      <c r="D8" t="n">
+        <v>57</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>29</v>
+      </c>
+      <c r="D9" t="n">
+        <v>71</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>29</v>
+      </c>
+      <c r="D10" t="n">
+        <v>71</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>29</v>
+      </c>
+      <c r="D11" t="n">
+        <v>71</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14</v>
+      </c>
+      <c r="D12" t="n">
+        <v>86</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>86</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>86</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>86</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>86</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14</v>
+      </c>
+      <c r="D17" t="n">
+        <v>86</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14</v>
+      </c>
+      <c r="D18" t="n">
+        <v>86</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>14</v>
+      </c>
+      <c r="D19" t="n">
+        <v>86</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>14</v>
+      </c>
+      <c r="D20" t="n">
+        <v>86</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>14</v>
+      </c>
+      <c r="D21" t="n">
+        <v>86</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>14</v>
+      </c>
+      <c r="D22" t="n">
+        <v>86</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>14</v>
+      </c>
+      <c r="D23" t="n">
+        <v>86</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>14</v>
+      </c>
+      <c r="D24" t="n">
+        <v>86</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>100</v>
       </c>
     </row>
@@ -16193,28 +16385,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -16899,28 +17091,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -17605,28 +17797,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -18215,28 +18407,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -18825,28 +19017,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -19371,28 +19563,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -20365,28 +20557,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20911,28 +21103,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21297,28 +21489,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21683,28 +21875,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -22645,28 +22837,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -23607,22 +23799,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23897,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24187,28 +24379,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -24509,28 +24701,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -24831,28 +25023,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -25441,28 +25633,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -26435,28 +26627,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -27045,28 +27237,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -27591,28 +27783,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -28137,28 +28329,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -28683,28 +28875,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -29229,28 +29421,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -29647,28 +29839,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -30065,28 +30257,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -30611,28 +30803,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -31157,28 +31349,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -31447,28 +31639,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -32185,28 +32377,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -32475,28 +32667,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -32861,28 +33053,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -33247,28 +33439,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -33793,28 +33985,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -34339,28 +34531,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -34821,28 +35013,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -35303,28 +35495,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -35945,28 +36137,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -36587,28 +36779,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -37229,28 +37421,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -37967,28 +38159,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38609,28 +38801,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38963,28 +39155,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39317,28 +39509,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39575,28 +39767,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39833,16 +40025,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -39851,10 +40043,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -40123,16 +40315,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -40141,10 +40333,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -40413,28 +40605,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -41055,28 +41247,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -41697,16 +41889,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -41715,10 +41907,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -42147,28 +42339,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -42949,16 +43141,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -42967,10 +43159,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -43399,28 +43591,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -43689,28 +43881,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -43979,16 +44171,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -44205,16 +44397,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -44431,22 +44623,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -44657,22 +44849,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -44883,22 +45075,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -45077,22 +45269,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -45271,22 +45463,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -45497,28 +45689,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -46299,22 +46491,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -46525,28 +46717,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -47231,28 +47423,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -47937,16 +48129,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -47955,10 +48147,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -48387,16 +48579,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -48405,10 +48597,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -49039,10 +49231,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -49169,10 +49361,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -49299,10 +49491,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -49423,22 +49615,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -49783,10 +49975,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -49907,10 +50099,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -49925,10 +50117,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -50101,10 +50293,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -50119,10 +50311,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -50491,16 +50683,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -50509,10 +50701,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -50749,16 +50941,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -50767,10 +50959,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -51007,10 +51199,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -51025,10 +51217,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -51265,10 +51457,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -51283,10 +51475,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
